--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJ2020\DataHarmonization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7400"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -1918,6 +1923,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2178,7 +2186,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2189,10 +2197,10 @@
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K72" sqref="K72"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2490,7 +2498,7 @@
       <c r="D10" s="204"/>
       <c r="E10" s="204"/>
       <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
+      <c r="G10" s="103"/>
       <c r="H10" s="206"/>
       <c r="I10" s="206"/>
       <c r="J10" s="207"/>
@@ -4414,7 +4422,9 @@
       </c>
       <c r="I72" s="175"/>
       <c r="J72" s="175"/>
-      <c r="K72" s="274"/>
+      <c r="K72" s="274" t="s">
+        <v>183</v>
+      </c>
       <c r="L72" s="103"/>
     </row>
     <row r="73" spans="1:62" x14ac:dyDescent="0.35">

--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Desktop\PROJ2020\DataHarmonization\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7400"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -592,8 +587,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2186,42 +2181,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="163" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="163" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="163" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="163" customWidth="1"/>
     <col min="3" max="3" width="107" style="163" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="164" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="164" customWidth="1"/>
-    <col min="6" max="6" width="34.7265625" style="163" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" style="163" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" style="165" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" style="165" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="165" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="165" customWidth="1"/>
-    <col min="12" max="12" width="20.26953125" style="36" customWidth="1"/>
-    <col min="13" max="62" width="9.1796875" style="36"/>
-    <col min="63" max="16384" width="9.1796875" style="17"/>
+    <col min="4" max="4" width="14.5703125" style="164" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="164" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" style="163" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="163" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="165" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="165" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="165" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="165" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="36" customWidth="1"/>
+    <col min="13" max="62" width="9.140625" style="36"/>
+    <col min="63" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="41" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:62" s="41" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2254,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:62" ht="15.75">
       <c r="A2" s="183">
         <v>1</v>
       </c>
@@ -2281,7 +2276,7 @@
       <c r="K2" s="226"/>
       <c r="L2" s="190"/>
     </row>
-    <row r="3" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:62" ht="15.75">
       <c r="A3" s="94">
         <v>2</v>
       </c>
@@ -2305,7 +2300,7 @@
       <c r="K3" s="227"/>
       <c r="L3" s="191"/>
     </row>
-    <row r="4" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:62" ht="15.75">
       <c r="A4" s="94">
         <v>3</v>
       </c>
@@ -2329,7 +2324,7 @@
       <c r="K4" s="227"/>
       <c r="L4" s="191"/>
     </row>
-    <row r="5" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:62" ht="15.75">
       <c r="A5" s="94">
         <v>4</v>
       </c>
@@ -2353,7 +2348,7 @@
       <c r="K5" s="227"/>
       <c r="L5" s="191"/>
     </row>
-    <row r="6" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:62" ht="15.75">
       <c r="A6" s="94">
         <v>5</v>
       </c>
@@ -2375,7 +2370,7 @@
       <c r="K6" s="227"/>
       <c r="L6" s="191"/>
     </row>
-    <row r="7" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:62" ht="15.75">
       <c r="A7" s="94">
         <v>6</v>
       </c>
@@ -2397,7 +2392,7 @@
       <c r="K7" s="227"/>
       <c r="L7" s="191"/>
     </row>
-    <row r="8" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="16.5" thickBot="1">
       <c r="A8" s="185">
         <v>7</v>
       </c>
@@ -2419,7 +2414,7 @@
       <c r="K8" s="228"/>
       <c r="L8" s="192"/>
     </row>
-    <row r="9" spans="1:62" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:62" s="77" customFormat="1" ht="15.75">
       <c r="A9" s="193"/>
       <c r="B9" s="194" t="s">
         <v>171</v>
@@ -2430,7 +2425,9 @@
       <c r="D9" s="196"/>
       <c r="E9" s="196"/>
       <c r="F9" s="197"/>
-      <c r="G9" s="197"/>
+      <c r="G9" s="197">
+        <v>1</v>
+      </c>
       <c r="H9" s="198"/>
       <c r="I9" s="198"/>
       <c r="J9" s="199"/>
@@ -2487,7 +2484,7 @@
       <c r="BI9" s="36"/>
       <c r="BJ9" s="36"/>
     </row>
-    <row r="10" spans="1:62" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:62" s="77" customFormat="1" ht="15.75">
       <c r="A10" s="201"/>
       <c r="B10" s="202" t="s">
         <v>172</v>
@@ -2555,7 +2552,7 @@
       <c r="BI10" s="36"/>
       <c r="BJ10" s="36"/>
     </row>
-    <row r="11" spans="1:62" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:62" s="77" customFormat="1" ht="15.75">
       <c r="A11" s="201"/>
       <c r="B11" s="202" t="s">
         <v>173</v>
@@ -2623,7 +2620,7 @@
       <c r="BI11" s="36"/>
       <c r="BJ11" s="36"/>
     </row>
-    <row r="12" spans="1:62" s="77" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:62" s="77" customFormat="1" ht="15.75">
       <c r="A12" s="201"/>
       <c r="B12" s="202" t="s">
         <v>174</v>
@@ -2634,9 +2631,7 @@
       <c r="D12" s="204"/>
       <c r="E12" s="204"/>
       <c r="F12" s="205"/>
-      <c r="G12" s="205">
-        <v>1</v>
-      </c>
+      <c r="G12" s="205"/>
       <c r="H12" s="206"/>
       <c r="I12" s="206"/>
       <c r="J12" s="207"/>
@@ -2693,7 +2688,7 @@
       <c r="BI12" s="36"/>
       <c r="BJ12" s="36"/>
     </row>
-    <row r="13" spans="1:62" s="77" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" s="77" customFormat="1" ht="16.5" thickBot="1">
       <c r="A13" s="209"/>
       <c r="B13" s="210" t="s">
         <v>175</v>
@@ -2761,7 +2756,7 @@
       <c r="BI13" s="36"/>
       <c r="BJ13" s="36"/>
     </row>
-    <row r="14" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:62" ht="15.75">
       <c r="A14" s="108">
         <v>7</v>
       </c>
@@ -2783,7 +2778,7 @@
       <c r="K14" s="226"/>
       <c r="L14" s="190"/>
     </row>
-    <row r="15" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:62" ht="15.75">
       <c r="A15" s="114">
         <v>8</v>
       </c>
@@ -2805,7 +2800,7 @@
       <c r="K15" s="227"/>
       <c r="L15" s="191"/>
     </row>
-    <row r="16" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:62" ht="15.75">
       <c r="A16" s="114">
         <v>9</v>
       </c>
@@ -2827,7 +2822,7 @@
       <c r="K16" s="227"/>
       <c r="L16" s="191"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="114">
         <v>10</v>
       </c>
@@ -2849,7 +2844,7 @@
       <c r="K17" s="227"/>
       <c r="L17" s="191"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="114">
         <v>11</v>
       </c>
@@ -2871,7 +2866,7 @@
       <c r="K18" s="227"/>
       <c r="L18" s="191"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="217">
         <v>12</v>
       </c>
@@ -2895,7 +2890,7 @@
       <c r="K19" s="232"/>
       <c r="L19" s="222"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15.75">
       <c r="A20" s="223">
         <v>13</v>
       </c>
@@ -2915,7 +2910,7 @@
       <c r="K20" s="227"/>
       <c r="L20" s="224"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15.75">
       <c r="A21" s="223">
         <v>14</v>
       </c>
@@ -2937,7 +2932,7 @@
       <c r="K21" s="227"/>
       <c r="L21" s="224"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" s="223">
         <v>15</v>
       </c>
@@ -2959,7 +2954,7 @@
       <c r="K22" s="227"/>
       <c r="L22" s="224"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
       <c r="A23" s="223">
         <v>16</v>
       </c>
@@ -2979,7 +2974,7 @@
       <c r="K23" s="227"/>
       <c r="L23" s="224"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15.75">
       <c r="A24" s="125">
         <v>17</v>
       </c>
@@ -2999,7 +2994,7 @@
       <c r="K24" s="226"/>
       <c r="L24" s="190"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15.75">
       <c r="A25" s="131">
         <v>18</v>
       </c>
@@ -3019,7 +3014,7 @@
       <c r="K25" s="227"/>
       <c r="L25" s="191"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15.75">
       <c r="A26" s="131">
         <v>19</v>
       </c>
@@ -3039,7 +3034,7 @@
       <c r="K26" s="227"/>
       <c r="L26" s="191"/>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15.75">
       <c r="A27" s="131">
         <v>20</v>
       </c>
@@ -3059,7 +3054,7 @@
       <c r="K27" s="227"/>
       <c r="L27" s="191"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15.75">
       <c r="A28" s="131">
         <v>21</v>
       </c>
@@ -3079,7 +3074,7 @@
       <c r="K28" s="227"/>
       <c r="L28" s="191"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="16.5" thickBot="1">
       <c r="A29" s="240">
         <v>22</v>
       </c>
@@ -3099,7 +3094,7 @@
       <c r="K29" s="228"/>
       <c r="L29" s="192"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15.75">
       <c r="A30" s="233">
         <v>23</v>
       </c>
@@ -3121,7 +3116,7 @@
       <c r="K30" s="226"/>
       <c r="L30" s="178"/>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15.75">
       <c r="A31" s="136">
         <v>24</v>
       </c>
@@ -3143,7 +3138,7 @@
       <c r="K31" s="227"/>
       <c r="L31" s="179"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15.75">
       <c r="A32" s="136">
         <v>25</v>
       </c>
@@ -3165,7 +3160,7 @@
       <c r="K32" s="227"/>
       <c r="L32" s="179"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="15.75">
       <c r="A33" s="136">
         <v>26</v>
       </c>
@@ -3187,7 +3182,7 @@
       <c r="K33" s="227"/>
       <c r="L33" s="179"/>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15.75">
       <c r="A34" s="136">
         <v>27</v>
       </c>
@@ -3209,7 +3204,7 @@
       <c r="K34" s="227"/>
       <c r="L34" s="179"/>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15.75">
       <c r="A35" s="136">
         <v>28</v>
       </c>
@@ -3231,7 +3226,7 @@
       <c r="K35" s="227"/>
       <c r="L35" s="179"/>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="15.75">
       <c r="A36" s="136">
         <v>29</v>
       </c>
@@ -3253,7 +3248,7 @@
       <c r="K36" s="227"/>
       <c r="L36" s="179"/>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15.75">
       <c r="A37" s="136">
         <v>30</v>
       </c>
@@ -3275,7 +3270,7 @@
       <c r="K37" s="227"/>
       <c r="L37" s="179"/>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75">
       <c r="A38" s="136">
         <v>31</v>
       </c>
@@ -3297,7 +3292,7 @@
       <c r="K38" s="227"/>
       <c r="L38" s="179"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15.75">
       <c r="A39" s="136">
         <v>32</v>
       </c>
@@ -3319,7 +3314,7 @@
       <c r="K39" s="227"/>
       <c r="L39" s="179"/>
     </row>
-    <row r="40" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="16.5" thickBot="1">
       <c r="A40" s="238">
         <v>33</v>
       </c>
@@ -3341,7 +3336,7 @@
       <c r="K40" s="228"/>
       <c r="L40" s="180"/>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="15.75">
       <c r="A41" s="233">
         <v>34</v>
       </c>
@@ -3363,7 +3358,7 @@
       <c r="K41" s="226"/>
       <c r="L41" s="178"/>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15.75">
       <c r="A42" s="136">
         <v>35</v>
       </c>
@@ -3385,7 +3380,7 @@
       <c r="K42" s="227"/>
       <c r="L42" s="179"/>
     </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15.75">
       <c r="A43" s="136">
         <v>36</v>
       </c>
@@ -3407,7 +3402,7 @@
       <c r="K43" s="227"/>
       <c r="L43" s="179"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15.75">
       <c r="A44" s="136">
         <v>37</v>
       </c>
@@ -3429,7 +3424,7 @@
       <c r="K44" s="227"/>
       <c r="L44" s="179"/>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75">
       <c r="A45" s="136">
         <v>38</v>
       </c>
@@ -3451,7 +3446,7 @@
       <c r="K45" s="227"/>
       <c r="L45" s="179"/>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15.75">
       <c r="A46" s="136">
         <v>39</v>
       </c>
@@ -3473,7 +3468,7 @@
       <c r="K46" s="227"/>
       <c r="L46" s="179"/>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15.75">
       <c r="A47" s="136">
         <v>40</v>
       </c>
@@ -3495,7 +3490,7 @@
       <c r="K47" s="227"/>
       <c r="L47" s="179"/>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15.75">
       <c r="A48" s="136">
         <v>41</v>
       </c>
@@ -3517,7 +3512,7 @@
       <c r="K48" s="227"/>
       <c r="L48" s="179"/>
     </row>
-    <row r="49" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:62" ht="15.75">
       <c r="A49" s="136">
         <v>42</v>
       </c>
@@ -3539,7 +3534,7 @@
       <c r="K49" s="227"/>
       <c r="L49" s="179"/>
     </row>
-    <row r="50" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:62" ht="15.75">
       <c r="A50" s="136">
         <v>43</v>
       </c>
@@ -3561,7 +3556,7 @@
       <c r="K50" s="227"/>
       <c r="L50" s="179"/>
     </row>
-    <row r="51" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:62" ht="16.5" thickBot="1">
       <c r="A51" s="238">
         <v>44</v>
       </c>
@@ -3583,7 +3578,7 @@
       <c r="K51" s="228"/>
       <c r="L51" s="180"/>
     </row>
-    <row r="52" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:62" ht="15.75">
       <c r="A52" s="108">
         <v>45</v>
       </c>
@@ -3605,7 +3600,7 @@
       <c r="K52" s="226"/>
       <c r="L52" s="178"/>
     </row>
-    <row r="53" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:62" ht="15.75">
       <c r="A53" s="114">
         <v>46</v>
       </c>
@@ -3627,7 +3622,7 @@
       <c r="K53" s="227"/>
       <c r="L53" s="179"/>
     </row>
-    <row r="54" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:62" ht="15.75">
       <c r="A54" s="114">
         <v>47</v>
       </c>
@@ -3649,7 +3644,7 @@
       <c r="K54" s="227"/>
       <c r="L54" s="179"/>
     </row>
-    <row r="55" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:62" ht="15.75">
       <c r="A55" s="114">
         <v>48</v>
       </c>
@@ -3671,7 +3666,7 @@
       <c r="K55" s="227"/>
       <c r="L55" s="179"/>
     </row>
-    <row r="56" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:62" ht="15.75">
       <c r="A56" s="114">
         <v>49</v>
       </c>
@@ -3693,7 +3688,7 @@
       <c r="K56" s="227"/>
       <c r="L56" s="179"/>
     </row>
-    <row r="57" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:62" ht="15.75">
       <c r="A57" s="114">
         <v>50</v>
       </c>
@@ -3715,7 +3710,7 @@
       <c r="K57" s="227"/>
       <c r="L57" s="179"/>
     </row>
-    <row r="58" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:62" ht="16.5" thickBot="1">
       <c r="A58" s="114">
         <v>51</v>
       </c>
@@ -3737,7 +3732,7 @@
       <c r="K58" s="227"/>
       <c r="L58" s="179"/>
     </row>
-    <row r="59" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:62" ht="16.5" thickBot="1">
       <c r="A59" s="114">
         <v>52</v>
       </c>
@@ -3759,7 +3754,7 @@
       <c r="K59" s="227"/>
       <c r="L59" s="179"/>
     </row>
-    <row r="60" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:62" ht="15.75">
       <c r="A60" s="114">
         <v>53</v>
       </c>
@@ -3779,7 +3774,7 @@
       <c r="K60" s="227"/>
       <c r="L60" s="179"/>
     </row>
-    <row r="61" spans="1:62" ht="16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:62" ht="15.75">
       <c r="A61" s="114">
         <v>54</v>
       </c>
@@ -3801,7 +3796,7 @@
       <c r="K61" s="227"/>
       <c r="L61" s="179"/>
     </row>
-    <row r="62" spans="1:62" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:62" ht="16.5" thickBot="1">
       <c r="A62" s="119">
         <v>55</v>
       </c>
@@ -3823,7 +3818,7 @@
       <c r="K62" s="228"/>
       <c r="L62" s="180"/>
     </row>
-    <row r="63" spans="1:62" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:62" s="38" customFormat="1">
       <c r="A63" s="265">
         <v>56</v>
       </c>
@@ -3895,7 +3890,7 @@
       <c r="BI63" s="36"/>
       <c r="BJ63" s="36"/>
     </row>
-    <row r="64" spans="1:62" s="38" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:62" s="38" customFormat="1">
       <c r="A64" s="152">
         <v>57</v>
       </c>
@@ -3971,7 +3966,7 @@
       <c r="BI64" s="36"/>
       <c r="BJ64" s="36"/>
     </row>
-    <row r="65" spans="1:62" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:62" s="38" customFormat="1" ht="15.75" thickBot="1">
       <c r="A65" s="270">
         <v>58</v>
       </c>
@@ -4045,7 +4040,7 @@
       <c r="BI65" s="36"/>
       <c r="BJ65" s="36"/>
     </row>
-    <row r="66" spans="1:62" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:62" s="39" customFormat="1">
       <c r="A66" s="193">
         <v>59</v>
       </c>
@@ -4123,7 +4118,7 @@
       <c r="BI66" s="36"/>
       <c r="BJ66" s="36"/>
     </row>
-    <row r="67" spans="1:62" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:62" s="39" customFormat="1">
       <c r="A67" s="201">
         <v>60</v>
       </c>
@@ -4201,7 +4196,7 @@
       <c r="BI67" s="36"/>
       <c r="BJ67" s="36"/>
     </row>
-    <row r="68" spans="1:62" s="39" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:62" s="39" customFormat="1">
       <c r="A68" s="201">
         <v>61</v>
       </c>
@@ -4279,7 +4274,7 @@
       <c r="BI68" s="36"/>
       <c r="BJ68" s="36"/>
     </row>
-    <row r="69" spans="1:62" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:62" s="39" customFormat="1" ht="15.75" thickBot="1">
       <c r="A69" s="209">
         <v>62</v>
       </c>
@@ -4355,7 +4350,7 @@
       <c r="BI69" s="36"/>
       <c r="BJ69" s="36"/>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:62">
       <c r="A70" s="108">
         <v>63</v>
       </c>
@@ -4379,7 +4374,7 @@
       </c>
       <c r="L70" s="178"/>
     </row>
-    <row r="71" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:62" ht="15.75" thickBot="1">
       <c r="A71" s="114">
         <v>65</v>
       </c>
@@ -4403,7 +4398,7 @@
       </c>
       <c r="L71" s="180"/>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:62">
       <c r="A72" s="248">
         <v>66</v>
       </c>
@@ -4427,7 +4422,7 @@
       </c>
       <c r="L72" s="103"/>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:62">
       <c r="A73" s="246">
         <v>67</v>
       </c>
@@ -4451,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:62" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:62" ht="15.75" thickBot="1">
       <c r="A74" s="249">
         <v>68</v>
       </c>
@@ -4482,34 +4477,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="6" width="25.453125" style="2" customWidth="1"/>
-    <col min="7" max="24" width="9.1796875" style="2"/>
-    <col min="25" max="25" width="17.26953125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="9.1796875" style="2"/>
-    <col min="27" max="27" width="23.26953125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="17.453125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="25.42578125" style="2" customWidth="1"/>
+    <col min="7" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="17.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="2"/>
+    <col min="27" max="27" width="23.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="2" customWidth="1"/>
     <col min="30" max="30" width="21" style="2" customWidth="1"/>
-    <col min="31" max="32" width="9.1796875" style="2"/>
-    <col min="33" max="33" width="31.81640625" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="9.1796875" style="2"/>
+    <col min="31" max="32" width="9.140625" style="2"/>
+    <col min="33" max="33" width="31.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -4523,7 +4518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -4537,7 +4532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
@@ -4551,7 +4546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="16.5">
       <c r="A4" s="73" t="s">
         <v>12</v>
       </c>
@@ -4565,7 +4560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="A5" s="73" t="s">
         <v>12</v>
       </c>
@@ -4579,7 +4574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="16.5">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -4593,7 +4588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="16.5">
       <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
@@ -4607,7 +4602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="16.5">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -4621,7 +4616,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="16.5">
       <c r="A9" s="52" t="s">
         <v>32</v>
       </c>
@@ -4635,7 +4630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
       <c r="A10" s="55" t="s">
         <v>32</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="16.5">
       <c r="A11" s="58" t="s">
         <v>33</v>
       </c>
@@ -4663,7 +4658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1">
       <c r="A12" s="55" t="s">
         <v>33</v>
       </c>
@@ -4677,7 +4672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="16.5">
       <c r="A13" s="58" t="s">
         <v>34</v>
       </c>
@@ -4691,7 +4686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="17.25" thickBot="1">
       <c r="A14" s="55" t="s">
         <v>34</v>
       </c>
@@ -4705,7 +4700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" ht="16.5">
       <c r="A15" s="58" t="s">
         <v>35</v>
       </c>
@@ -4719,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1">
       <c r="A16" s="55" t="s">
         <v>35</v>
       </c>
@@ -4733,7 +4728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="16.5">
       <c r="A17" s="58" t="s">
         <v>36</v>
       </c>
@@ -4747,7 +4742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="17.25" thickBot="1">
       <c r="A18" s="55" t="s">
         <v>36</v>
       </c>
@@ -4761,7 +4756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" ht="16.5">
       <c r="A19" s="58" t="s">
         <v>37</v>
       </c>
@@ -4775,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="17.25" thickBot="1">
       <c r="A20" s="55" t="s">
         <v>37</v>
       </c>
@@ -4789,7 +4784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="16.5">
       <c r="A21" s="58" t="s">
         <v>38</v>
       </c>
@@ -4803,7 +4798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="17.25" thickBot="1">
       <c r="A22" s="55" t="s">
         <v>38</v>
       </c>
@@ -4817,7 +4812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" ht="16.5">
       <c r="A23" s="58" t="s">
         <v>39</v>
       </c>
@@ -4831,7 +4826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="17.25" thickBot="1">
       <c r="A24" s="55" t="s">
         <v>39</v>
       </c>
@@ -4845,7 +4840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16.5">
       <c r="A25" s="58" t="s">
         <v>40</v>
       </c>
@@ -4859,7 +4854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="17.25" thickBot="1">
       <c r="A26" s="55" t="s">
         <v>40</v>
       </c>
@@ -4873,7 +4868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="16.5">
       <c r="A27" s="58" t="s">
         <v>41</v>
       </c>
@@ -4887,7 +4882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="17.25" thickBot="1">
       <c r="A28" s="55" t="s">
         <v>41</v>
       </c>
@@ -4901,7 +4896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="16.5">
       <c r="A29" s="58" t="s">
         <v>42</v>
       </c>
@@ -4915,7 +4910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="16.5">
       <c r="A30" s="61" t="s">
         <v>42</v>
       </c>
@@ -4929,7 +4924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="16.5">
       <c r="A31" s="42" t="s">
         <v>28</v>
       </c>
@@ -4943,7 +4938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="17.25" thickBot="1">
       <c r="A32" s="45" t="s">
         <v>28</v>
       </c>
@@ -4957,7 +4952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="47" t="s">
         <v>156</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="17.25" thickBot="1">
       <c r="A34" s="45" t="s">
         <v>156</v>
       </c>
@@ -4985,7 +4980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" ht="16.5">
       <c r="A35" s="47" t="s">
         <v>29</v>
       </c>
@@ -4999,7 +4994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="17.25" thickBot="1">
       <c r="A36" s="45" t="s">
         <v>29</v>
       </c>
@@ -5013,7 +5008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" ht="16.5">
       <c r="A37" s="47" t="s">
         <v>30</v>
       </c>
@@ -5027,7 +5022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="17.25" thickBot="1">
       <c r="A38" s="45" t="s">
         <v>30</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="47" t="s">
         <v>157</v>
       </c>
@@ -5055,7 +5050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="17.25" thickBot="1">
       <c r="A40" s="45" t="s">
         <v>157</v>
       </c>
@@ -5069,7 +5064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" ht="16.5">
       <c r="A41" s="47" t="s">
         <v>31</v>
       </c>
@@ -5083,7 +5078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="17.25" thickBot="1">
       <c r="A42" s="45" t="s">
         <v>31</v>
       </c>
@@ -5097,7 +5092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="47" t="s">
         <v>158</v>
       </c>
@@ -5111,7 +5106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="17.25" thickBot="1">
       <c r="A44" s="45" t="s">
         <v>158</v>
       </c>
@@ -5125,7 +5120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="47" t="s">
         <v>159</v>
       </c>
@@ -5139,7 +5134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="17.25" thickBot="1">
       <c r="A46" s="45" t="s">
         <v>159</v>
       </c>
@@ -5153,7 +5148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" ht="16.5">
       <c r="A47" s="47" t="s">
         <v>160</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" ht="17.25" thickBot="1">
       <c r="A48" s="45" t="s">
         <v>160</v>
       </c>
@@ -5181,7 +5176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" ht="16.5">
       <c r="A49" s="47" t="s">
         <v>161</v>
       </c>
@@ -5195,7 +5190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="17.25" thickBot="1">
       <c r="A50" s="45" t="s">
         <v>161</v>
       </c>
@@ -5209,7 +5204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="16.5">
       <c r="A51" s="47" t="s">
         <v>162</v>
       </c>
@@ -5223,7 +5218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="17.25" thickBot="1">
       <c r="A52" s="49" t="s">
         <v>162</v>
       </c>
@@ -5237,7 +5232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="64" t="s">
         <v>44</v>
       </c>
@@ -5251,7 +5246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" ht="16.5" thickBot="1">
       <c r="A54" s="67" t="s">
         <v>44</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="70" t="s">
         <v>89</v>
       </c>
@@ -5279,7 +5274,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="71" t="s">
         <v>89</v>
       </c>
@@ -5293,7 +5288,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" ht="16.5" thickBot="1">
       <c r="A57" s="71" t="s">
         <v>89</v>
       </c>
@@ -5307,7 +5302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4">
       <c r="A58" s="24" t="s">
         <v>111</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4">
       <c r="A59" s="25" t="s">
         <v>111</v>
       </c>
@@ -5335,7 +5330,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4">
       <c r="A60" s="25" t="s">
         <v>111</v>
       </c>
@@ -5349,7 +5344,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4">
       <c r="A61" s="25" t="s">
         <v>111</v>
       </c>
@@ -5363,7 +5358,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" ht="15.75" thickBot="1">
       <c r="A62" s="26" t="s">
         <v>111</v>
       </c>
@@ -5377,7 +5372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4">
       <c r="A63" s="32" t="s">
         <v>122</v>
       </c>
@@ -5391,7 +5386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4">
       <c r="A64" s="33" t="s">
         <v>122</v>
       </c>
@@ -5405,7 +5400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4">
       <c r="A65" s="33" t="s">
         <v>122</v>
       </c>
@@ -5419,7 +5414,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" ht="15.75" thickBot="1">
       <c r="A66" s="34" t="s">
         <v>122</v>
       </c>
@@ -5433,7 +5428,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="87" t="s">
         <v>14</v>
       </c>
@@ -5447,7 +5442,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="88" t="s">
         <v>14</v>
       </c>
@@ -5461,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="88" t="s">
         <v>14</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="88" t="s">
         <v>14</v>
       </c>
@@ -5489,7 +5484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="88" t="s">
         <v>14</v>
       </c>
@@ -5503,7 +5498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="16.5" thickBot="1">
       <c r="A72" s="89" t="s">
         <v>14</v>
       </c>

--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
   <si>
     <t>id</t>
   </si>
@@ -2191,11 +2191,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2425,9 +2425,7 @@
       <c r="D9" s="196"/>
       <c r="E9" s="196"/>
       <c r="F9" s="197"/>
-      <c r="G9" s="197">
-        <v>1</v>
-      </c>
+      <c r="G9" s="197"/>
       <c r="H9" s="198"/>
       <c r="I9" s="198"/>
       <c r="J9" s="199"/>
@@ -2631,7 +2629,9 @@
       <c r="D12" s="204"/>
       <c r="E12" s="204"/>
       <c r="F12" s="205"/>
-      <c r="G12" s="205"/>
+      <c r="G12" s="205">
+        <v>1</v>
+      </c>
       <c r="H12" s="206"/>
       <c r="I12" s="206"/>
       <c r="J12" s="207"/>
@@ -4057,15 +4057,9 @@
       <c r="H66" s="252">
         <v>4</v>
       </c>
-      <c r="I66" s="252">
-        <v>1</v>
-      </c>
-      <c r="J66" s="253">
-        <v>1</v>
-      </c>
-      <c r="K66" s="252" t="s">
-        <v>183</v>
-      </c>
+      <c r="I66" s="252"/>
+      <c r="J66" s="253"/>
+      <c r="K66" s="252"/>
       <c r="L66" s="254"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
@@ -4135,15 +4129,9 @@
       <c r="H67" s="257">
         <v>5</v>
       </c>
-      <c r="I67" s="257">
-        <v>1</v>
-      </c>
-      <c r="J67" s="258">
-        <v>1</v>
-      </c>
-      <c r="K67" s="257">
-        <v>1</v>
-      </c>
+      <c r="I67" s="257"/>
+      <c r="J67" s="258"/>
+      <c r="K67" s="257"/>
       <c r="L67" s="259"/>
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
@@ -4213,15 +4201,9 @@
       <c r="H68" s="257">
         <v>6</v>
       </c>
-      <c r="I68" s="257">
-        <v>1</v>
-      </c>
-      <c r="J68" s="258">
-        <v>1</v>
-      </c>
-      <c r="K68" s="257" t="s">
-        <v>183</v>
-      </c>
+      <c r="I68" s="257"/>
+      <c r="J68" s="258"/>
+      <c r="K68" s="257"/>
       <c r="L68" s="259"/>
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
@@ -4291,12 +4273,8 @@
       <c r="H69" s="262" t="s">
         <v>184</v>
       </c>
-      <c r="I69" s="262">
-        <v>1</v>
-      </c>
-      <c r="J69" s="263">
-        <v>1</v>
-      </c>
+      <c r="I69" s="262"/>
+      <c r="J69" s="263"/>
       <c r="K69" s="262"/>
       <c r="L69" s="264"/>
       <c r="M69" s="36"/>
@@ -4417,9 +4395,7 @@
       </c>
       <c r="I72" s="175"/>
       <c r="J72" s="175"/>
-      <c r="K72" s="274" t="s">
-        <v>183</v>
-      </c>
+      <c r="K72" s="274"/>
       <c r="L72" s="103"/>
     </row>
     <row r="73" spans="1:62">

--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -1629,7 +1629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1640,10 +1640,10 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1819,9 +1819,7 @@
       <c r="D9" s="115"/>
       <c r="E9" s="115"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="119">
-        <v>1</v>
-      </c>
+      <c r="G9" s="119"/>
       <c r="H9" s="116"/>
       <c r="I9" s="125"/>
       <c r="J9" s="125"/>
@@ -1857,7 +1855,9 @@
       <c r="D12" s="115"/>
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
-      <c r="G12" s="120"/>
+      <c r="G12" s="120">
+        <v>1</v>
+      </c>
       <c r="H12" s="116"/>
       <c r="I12" s="125"/>
       <c r="J12" s="125"/>

--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -428,21 +428,6 @@
     <t>Not matching</t>
   </si>
   <si>
-    <t>exc_cancer</t>
-  </si>
-  <si>
-    <t>exc_prev_CVD</t>
-  </si>
-  <si>
-    <t>exc_prev_KD</t>
-  </si>
-  <si>
-    <t>exc_prev_MET</t>
-  </si>
-  <si>
-    <t>exc_post</t>
-  </si>
-  <si>
     <t>exc_apestat</t>
   </si>
   <si>
@@ -512,9 +497,6 @@
     <t xml:space="preserve">Prescripciones.Tiazolinadionas / [A10BG**]. </t>
   </si>
   <si>
-    <t>exclusio1_prev</t>
-  </si>
-  <si>
     <t>Exclusion antes 31.12.2018</t>
   </si>
   <si>
@@ -572,16 +554,43 @@
     <t>7</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>exc_post2</t>
   </si>
   <si>
-    <t>13</t>
+    <t>exclusio1_prev_2018</t>
+  </si>
+  <si>
+    <t>DG.cancer</t>
+  </si>
+  <si>
+    <t>DG.prevalent_CVD</t>
+  </si>
+  <si>
+    <t>DG.prevalent_KD</t>
+  </si>
+  <si>
+    <t>DG.prevalent_MET</t>
+  </si>
+  <si>
+    <t>exc_antiguitat</t>
+  </si>
+  <si>
+    <t>exc_post1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -677,7 +686,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +765,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -1020,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1341,22 +1356,31 @@
     <xf numFmtId="49" fontId="11" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,19 +1661,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="82" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="82" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="82" customWidth="1"/>
     <col min="3" max="3" width="107" style="82" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="87" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="87" customWidth="1"/>
@@ -1658,8 +1682,7 @@
     <col min="8" max="8" width="19.85546875" style="88" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" style="124" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="124" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="124" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="92" customWidth="1"/>
+    <col min="11" max="12" width="16.42578125" style="124" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
@@ -1683,7 +1706,7 @@
         <v>104</v>
       </c>
       <c r="G1" s="118" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H1" s="86" t="s">
         <v>132</v>
@@ -1695,10 +1718,10 @@
         <v>134</v>
       </c>
       <c r="K1" s="123" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="L1" s="123" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5">
@@ -1799,10 +1822,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G8" s="118">
         <v>1</v>
@@ -1811,66 +1834,66 @@
     <row r="9" spans="1:12" s="117" customFormat="1" ht="16.5">
       <c r="A9" s="113"/>
       <c r="B9" s="114" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C9" s="114" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D9" s="115"/>
       <c r="E9" s="115"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="119"/>
+      <c r="G9" s="119">
+        <v>1</v>
+      </c>
       <c r="H9" s="116"/>
       <c r="I9" s="125"/>
       <c r="J9" s="125"/>
       <c r="K9" s="125"/>
-      <c r="L9" s="120"/>
+      <c r="L9" s="125"/>
     </row>
     <row r="10" spans="1:12" ht="16.5">
       <c r="A10" s="83"/>
       <c r="B10" s="82" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5">
       <c r="A11" s="83"/>
       <c r="B11" s="82" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="117" customFormat="1" ht="16.5">
       <c r="A12" s="113"/>
       <c r="B12" s="114" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C12" s="114" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D12" s="115"/>
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
-      <c r="G12" s="120">
-        <v>1</v>
-      </c>
+      <c r="G12" s="120"/>
       <c r="H12" s="116"/>
       <c r="I12" s="125"/>
       <c r="J12" s="125"/>
       <c r="K12" s="125"/>
-      <c r="L12" s="120"/>
+      <c r="L12" s="125"/>
     </row>
     <row r="13" spans="1:12" ht="16.5">
       <c r="A13" s="83"/>
       <c r="B13" s="82" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="97" customFormat="1" ht="16.5">
@@ -1893,7 +1916,7 @@
       <c r="I14" s="126"/>
       <c r="J14" s="126"/>
       <c r="K14" s="126"/>
-      <c r="L14" s="121"/>
+      <c r="L14" s="126"/>
     </row>
     <row r="15" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A15" s="93">
@@ -1915,7 +1938,7 @@
       <c r="I15" s="126"/>
       <c r="J15" s="126"/>
       <c r="K15" s="126"/>
-      <c r="L15" s="121"/>
+      <c r="L15" s="126"/>
     </row>
     <row r="16" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A16" s="93">
@@ -1937,7 +1960,7 @@
       <c r="I16" s="126"/>
       <c r="J16" s="126"/>
       <c r="K16" s="126"/>
-      <c r="L16" s="121"/>
+      <c r="L16" s="126"/>
     </row>
     <row r="17" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A17" s="93">
@@ -1959,7 +1982,7 @@
       <c r="I17" s="126"/>
       <c r="J17" s="126"/>
       <c r="K17" s="126"/>
-      <c r="L17" s="121"/>
+      <c r="L17" s="126"/>
     </row>
     <row r="18" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A18" s="93">
@@ -1981,7 +2004,7 @@
       <c r="I18" s="126"/>
       <c r="J18" s="126"/>
       <c r="K18" s="126"/>
-      <c r="L18" s="121"/>
+      <c r="L18" s="126"/>
     </row>
     <row r="19" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A19" s="93">
@@ -2005,7 +2028,7 @@
       <c r="I19" s="126"/>
       <c r="J19" s="126"/>
       <c r="K19" s="126"/>
-      <c r="L19" s="121"/>
+      <c r="L19" s="126"/>
     </row>
     <row r="20" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A20" s="93">
@@ -2025,7 +2048,7 @@
       <c r="I20" s="126"/>
       <c r="J20" s="126"/>
       <c r="K20" s="126"/>
-      <c r="L20" s="121"/>
+      <c r="L20" s="126"/>
     </row>
     <row r="21" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A21" s="93">
@@ -2047,7 +2070,7 @@
       <c r="I21" s="126"/>
       <c r="J21" s="126"/>
       <c r="K21" s="126"/>
-      <c r="L21" s="121"/>
+      <c r="L21" s="126"/>
     </row>
     <row r="22" spans="1:12" s="97" customFormat="1" ht="16.5">
       <c r="A22" s="93">
@@ -2069,7 +2092,7 @@
       <c r="I22" s="126"/>
       <c r="J22" s="126"/>
       <c r="K22" s="126"/>
-      <c r="L22" s="121"/>
+      <c r="L22" s="126"/>
     </row>
     <row r="23" spans="1:12" ht="16.5">
       <c r="A23" s="83">
@@ -2168,14 +2191,14 @@
       <c r="I30" s="127"/>
       <c r="J30" s="127"/>
       <c r="K30" s="127"/>
-      <c r="L30" s="122"/>
+      <c r="L30" s="127"/>
     </row>
     <row r="31" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A31" s="100">
         <v>24</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C31" s="102" t="s">
         <v>78</v>
@@ -2190,7 +2213,7 @@
       <c r="I31" s="127"/>
       <c r="J31" s="127"/>
       <c r="K31" s="127"/>
-      <c r="L31" s="122"/>
+      <c r="L31" s="127"/>
     </row>
     <row r="32" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A32" s="100">
@@ -2212,7 +2235,7 @@
       <c r="I32" s="127"/>
       <c r="J32" s="127"/>
       <c r="K32" s="127"/>
-      <c r="L32" s="122"/>
+      <c r="L32" s="127"/>
     </row>
     <row r="33" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A33" s="100">
@@ -2234,14 +2257,14 @@
       <c r="I33" s="127"/>
       <c r="J33" s="127"/>
       <c r="K33" s="127"/>
-      <c r="L33" s="122"/>
+      <c r="L33" s="127"/>
     </row>
     <row r="34" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A34" s="100">
         <v>27</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C34" s="102" t="s">
         <v>81</v>
@@ -2256,7 +2279,7 @@
       <c r="I34" s="127"/>
       <c r="J34" s="127"/>
       <c r="K34" s="127"/>
-      <c r="L34" s="122"/>
+      <c r="L34" s="127"/>
     </row>
     <row r="35" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A35" s="100">
@@ -2278,14 +2301,14 @@
       <c r="I35" s="127"/>
       <c r="J35" s="127"/>
       <c r="K35" s="127"/>
-      <c r="L35" s="122"/>
+      <c r="L35" s="127"/>
     </row>
     <row r="36" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A36" s="100">
         <v>29</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C36" s="101" t="s">
         <v>83</v>
@@ -2300,14 +2323,14 @@
       <c r="I36" s="127"/>
       <c r="J36" s="127"/>
       <c r="K36" s="127"/>
-      <c r="L36" s="122"/>
+      <c r="L36" s="127"/>
     </row>
     <row r="37" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A37" s="100">
         <v>30</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C37" s="101" t="s">
         <v>84</v>
@@ -2322,17 +2345,17 @@
       <c r="I37" s="127"/>
       <c r="J37" s="127"/>
       <c r="K37" s="127"/>
-      <c r="L37" s="122"/>
+      <c r="L37" s="127"/>
     </row>
     <row r="38" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A38" s="100">
         <v>31</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="103">
@@ -2344,14 +2367,14 @@
       <c r="I38" s="127"/>
       <c r="J38" s="127"/>
       <c r="K38" s="127"/>
-      <c r="L38" s="122"/>
+      <c r="L38" s="127"/>
     </row>
     <row r="39" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A39" s="100">
         <v>32</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C39" s="102" t="s">
         <v>85</v>
@@ -2366,17 +2389,17 @@
       <c r="I39" s="127"/>
       <c r="J39" s="127"/>
       <c r="K39" s="127"/>
-      <c r="L39" s="122"/>
+      <c r="L39" s="127"/>
     </row>
     <row r="40" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A40" s="100">
         <v>33</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C40" s="101" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D40" s="103"/>
       <c r="E40" s="103">
@@ -2388,7 +2411,7 @@
       <c r="I40" s="127"/>
       <c r="J40" s="127"/>
       <c r="K40" s="127"/>
-      <c r="L40" s="122"/>
+      <c r="L40" s="127"/>
     </row>
     <row r="41" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A41" s="100">
@@ -2410,7 +2433,7 @@
       <c r="I41" s="127"/>
       <c r="J41" s="127"/>
       <c r="K41" s="127"/>
-      <c r="L41" s="122"/>
+      <c r="L41" s="127"/>
     </row>
     <row r="42" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A42" s="100">
@@ -2432,7 +2455,7 @@
       <c r="I42" s="127"/>
       <c r="J42" s="127"/>
       <c r="K42" s="127"/>
-      <c r="L42" s="122"/>
+      <c r="L42" s="127"/>
     </row>
     <row r="43" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A43" s="100">
@@ -2454,7 +2477,7 @@
       <c r="I43" s="127"/>
       <c r="J43" s="127"/>
       <c r="K43" s="127"/>
-      <c r="L43" s="122"/>
+      <c r="L43" s="127"/>
     </row>
     <row r="44" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A44" s="100">
@@ -2476,7 +2499,7 @@
       <c r="I44" s="127"/>
       <c r="J44" s="127"/>
       <c r="K44" s="127"/>
-      <c r="L44" s="122"/>
+      <c r="L44" s="127"/>
     </row>
     <row r="45" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A45" s="100">
@@ -2498,7 +2521,7 @@
       <c r="I45" s="127"/>
       <c r="J45" s="127"/>
       <c r="K45" s="127"/>
-      <c r="L45" s="122"/>
+      <c r="L45" s="127"/>
     </row>
     <row r="46" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A46" s="100">
@@ -2520,7 +2543,7 @@
       <c r="I46" s="127"/>
       <c r="J46" s="127"/>
       <c r="K46" s="127"/>
-      <c r="L46" s="122"/>
+      <c r="L46" s="127"/>
     </row>
     <row r="47" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A47" s="100">
@@ -2542,7 +2565,7 @@
       <c r="I47" s="127"/>
       <c r="J47" s="127"/>
       <c r="K47" s="127"/>
-      <c r="L47" s="122"/>
+      <c r="L47" s="127"/>
     </row>
     <row r="48" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A48" s="100">
@@ -2564,7 +2587,7 @@
       <c r="I48" s="127"/>
       <c r="J48" s="127"/>
       <c r="K48" s="127"/>
-      <c r="L48" s="122"/>
+      <c r="L48" s="127"/>
     </row>
     <row r="49" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A49" s="100">
@@ -2586,7 +2609,7 @@
       <c r="I49" s="127"/>
       <c r="J49" s="127"/>
       <c r="K49" s="127"/>
-      <c r="L49" s="122"/>
+      <c r="L49" s="127"/>
     </row>
     <row r="50" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A50" s="100">
@@ -2608,7 +2631,7 @@
       <c r="I50" s="127"/>
       <c r="J50" s="127"/>
       <c r="K50" s="127"/>
-      <c r="L50" s="122"/>
+      <c r="L50" s="127"/>
     </row>
     <row r="51" spans="1:12" s="105" customFormat="1" ht="16.5">
       <c r="A51" s="100">
@@ -2630,7 +2653,7 @@
       <c r="I51" s="127"/>
       <c r="J51" s="127"/>
       <c r="K51" s="127"/>
-      <c r="L51" s="122"/>
+      <c r="L51" s="127"/>
     </row>
     <row r="52" spans="1:12" ht="16.5">
       <c r="A52" s="83">
@@ -2763,7 +2786,7 @@
         <v>110</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E61" s="87">
         <v>43</v>
@@ -2783,283 +2806,302 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="110" customFormat="1" ht="16.5">
-      <c r="A63" s="106">
+    <row r="63" spans="1:12" s="134" customFormat="1" ht="16.5">
+      <c r="A63" s="128">
         <v>56</v>
       </c>
-      <c r="B63" s="107" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="109">
-        <v>1</v>
-      </c>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="112"/>
-      <c r="L63" s="111"/>
-    </row>
-    <row r="64" spans="1:12" s="110" customFormat="1" ht="16.5">
-      <c r="A64" s="106">
+      <c r="B63" s="129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="132">
+        <v>1</v>
+      </c>
+      <c r="I63" s="133" t="s">
+        <v>177</v>
+      </c>
+      <c r="J63" s="133" t="s">
+        <v>177</v>
+      </c>
+      <c r="K63" s="133"/>
+      <c r="L63" s="133"/>
+    </row>
+    <row r="64" spans="1:12" s="134" customFormat="1" ht="16.5">
+      <c r="A64" s="128">
         <v>57</v>
       </c>
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="111"/>
-      <c r="H64" s="109">
+      <c r="C64" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="132">
         <v>2</v>
       </c>
-      <c r="I64" s="112">
-        <v>1</v>
-      </c>
-      <c r="J64" s="112">
-        <v>1</v>
-      </c>
-      <c r="K64" s="112"/>
-      <c r="L64" s="111"/>
-    </row>
-    <row r="65" spans="1:12" s="110" customFormat="1" ht="16.5">
-      <c r="A65" s="106">
+      <c r="I64" s="133">
+        <v>1</v>
+      </c>
+      <c r="J64" s="133">
+        <v>1</v>
+      </c>
+      <c r="K64" s="133"/>
+      <c r="L64" s="133"/>
+    </row>
+    <row r="65" spans="1:12" s="134" customFormat="1" ht="16.5">
+      <c r="A65" s="128">
         <v>58</v>
       </c>
-      <c r="B65" s="107" t="s">
+      <c r="B65" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="107" t="s">
+      <c r="C65" s="129" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="109">
-        <v>8</v>
-      </c>
-      <c r="I65" s="128"/>
-      <c r="J65" s="112">
-        <v>1</v>
-      </c>
-      <c r="K65" s="112"/>
-      <c r="L65" s="111"/>
-    </row>
-    <row r="66" spans="1:12" s="133" customFormat="1" ht="16.5">
-      <c r="A66" s="130">
-        <v>59</v>
-      </c>
-      <c r="B66" s="131" t="s">
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="I65" s="135"/>
+      <c r="J65" s="133">
+        <v>1</v>
+      </c>
+      <c r="K65" s="133"/>
+      <c r="L65" s="133"/>
+    </row>
+    <row r="66" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A66" s="106">
+        <v>63</v>
+      </c>
+      <c r="B66" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="107" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="L66" s="112"/>
+    </row>
+    <row r="67" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A67" s="106">
+        <v>66</v>
+      </c>
+      <c r="B67" s="107" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="120"/>
-      <c r="E66" s="120"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="132">
-        <v>4</v>
-      </c>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="120"/>
-    </row>
-    <row r="67" spans="1:12" s="133" customFormat="1" ht="16.5">
-      <c r="A67" s="130">
-        <v>60</v>
-      </c>
-      <c r="B67" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="131" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="120"/>
-      <c r="G67" s="120"/>
-      <c r="H67" s="132">
-        <v>5</v>
-      </c>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="120"/>
-    </row>
-    <row r="68" spans="1:12" s="133" customFormat="1" ht="16.5">
-      <c r="A68" s="130">
-        <v>61</v>
-      </c>
-      <c r="B68" s="131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="131" t="s">
+      <c r="C67" s="107" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="L67" s="112"/>
+    </row>
+    <row r="68" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A68" s="106">
+        <v>67</v>
+      </c>
+      <c r="B68" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="D68" s="120"/>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="132">
-        <v>6</v>
-      </c>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="120"/>
-    </row>
-    <row r="69" spans="1:12" s="133" customFormat="1" ht="16.5">
-      <c r="A69" s="130">
-        <v>62</v>
-      </c>
-      <c r="B69" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="131" t="s">
+      <c r="C68" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="D69" s="120"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="120"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="111"/>
+      <c r="H68" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" s="112"/>
+      <c r="J68" s="112"/>
+      <c r="K68" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="L68" s="112"/>
+    </row>
+    <row r="69" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A69" s="106">
+        <v>69</v>
+      </c>
+      <c r="B69" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="I69" s="112"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="L69" s="112"/>
     </row>
     <row r="70" spans="1:12" s="110" customFormat="1" ht="16.5">
       <c r="A70" s="106">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D70" s="108"/>
       <c r="E70" s="108"/>
       <c r="F70" s="108"/>
       <c r="G70" s="111"/>
-      <c r="H70" s="109">
-        <v>9</v>
+      <c r="H70" s="109" t="s">
+        <v>188</v>
       </c>
       <c r="I70" s="112"/>
       <c r="J70" s="112"/>
       <c r="K70" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="L70" s="111"/>
+        <v>177</v>
+      </c>
+      <c r="L70" s="112"/>
     </row>
     <row r="71" spans="1:12" s="110" customFormat="1" ht="16.5">
       <c r="A71" s="106">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B71" s="107" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D71" s="108"/>
       <c r="E71" s="108"/>
       <c r="F71" s="108"/>
       <c r="G71" s="111"/>
-      <c r="H71" s="109">
-        <v>11</v>
+      <c r="H71" s="109" t="s">
+        <v>189</v>
       </c>
       <c r="I71" s="112"/>
       <c r="J71" s="112"/>
       <c r="K71" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="L71" s="111"/>
-    </row>
-    <row r="72" spans="1:12" s="133" customFormat="1" ht="16.5">
-      <c r="A72" s="130">
-        <v>66</v>
-      </c>
-      <c r="B72" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="131" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="132" t="s">
-        <v>188</v>
-      </c>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
-      <c r="K72" s="132"/>
-      <c r="L72" s="120"/>
-    </row>
-    <row r="73" spans="1:12" s="133" customFormat="1" ht="16.5">
-      <c r="A73" s="130">
-        <v>67</v>
-      </c>
-      <c r="B73" s="131" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="131" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="120"/>
-      <c r="G73" s="120"/>
-      <c r="H73" s="132" t="s">
-        <v>186</v>
-      </c>
-      <c r="I73" s="132"/>
-      <c r="J73" s="132"/>
-      <c r="K73" s="132"/>
-      <c r="L73" s="119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="110" customFormat="1" ht="16.5">
-      <c r="A74" s="106">
+        <v>177</v>
+      </c>
+      <c r="L71" s="112"/>
+    </row>
+    <row r="72" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A72" s="106">
+        <v>72</v>
+      </c>
+      <c r="B72" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="111"/>
+      <c r="H72" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="112"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="L72" s="112"/>
+    </row>
+    <row r="73" spans="1:12" s="110" customFormat="1" ht="16.5">
+      <c r="A73" s="106">
+        <v>65</v>
+      </c>
+      <c r="B73" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" s="112"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="112"/>
+      <c r="L73" s="112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="16.5">
+      <c r="A74" s="83">
         <v>68</v>
       </c>
-      <c r="B74" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="107" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="108"/>
-      <c r="E74" s="108"/>
-      <c r="F74" s="108"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="109" t="s">
+      <c r="B74" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="86"/>
+      <c r="I74" s="136"/>
+      <c r="J74" s="123"/>
+      <c r="K74" s="123"/>
+      <c r="L74" s="123"/>
+    </row>
+    <row r="75" spans="1:12" ht="16.5">
+      <c r="A75" s="83">
+        <v>73</v>
+      </c>
+      <c r="B75" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="I74" s="129"/>
-      <c r="J74" s="129"/>
-      <c r="K74" s="112" t="s">
-        <v>183</v>
-      </c>
-      <c r="L74" s="111"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="136"/>
+      <c r="J75" s="123"/>
+      <c r="K75" s="123"/>
+      <c r="L75" s="123"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3545,7 +3587,7 @@
     </row>
     <row r="33" spans="1:4" ht="16.5">
       <c r="A33" s="40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -3559,7 +3601,7 @@
     </row>
     <row r="34" spans="1:4" ht="17.25" thickBot="1">
       <c r="A34" s="38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B34" s="5">
         <v>1</v>
@@ -3629,7 +3671,7 @@
     </row>
     <row r="39" spans="1:4" ht="16.5">
       <c r="A39" s="40" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -3643,7 +3685,7 @@
     </row>
     <row r="40" spans="1:4" ht="17.25" thickBot="1">
       <c r="A40" s="38" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
@@ -3685,7 +3727,7 @@
     </row>
     <row r="43" spans="1:4" ht="16.5">
       <c r="A43" s="40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -3699,7 +3741,7 @@
     </row>
     <row r="44" spans="1:4" ht="17.25" thickBot="1">
       <c r="A44" s="38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
@@ -3713,7 +3755,7 @@
     </row>
     <row r="45" spans="1:4" ht="16.5">
       <c r="A45" s="40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -3727,7 +3769,7 @@
     </row>
     <row r="46" spans="1:4" ht="17.25" thickBot="1">
       <c r="A46" s="38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -3741,7 +3783,7 @@
     </row>
     <row r="47" spans="1:4" ht="16.5">
       <c r="A47" s="40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B47" s="4">
         <v>0</v>
@@ -3755,7 +3797,7 @@
     </row>
     <row r="48" spans="1:4" ht="17.25" thickBot="1">
       <c r="A48" s="38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B48" s="5">
         <v>1</v>
@@ -3769,7 +3811,7 @@
     </row>
     <row r="49" spans="1:4" ht="16.5">
       <c r="A49" s="40" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B49" s="4">
         <v>0</v>
@@ -3783,7 +3825,7 @@
     </row>
     <row r="50" spans="1:4" ht="17.25" thickBot="1">
       <c r="A50" s="38" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B50" s="5">
         <v>1</v>
@@ -3797,7 +3839,7 @@
     </row>
     <row r="51" spans="1:4" ht="16.5">
       <c r="A51" s="40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -3811,7 +3853,7 @@
     </row>
     <row r="52" spans="1:4" ht="17.25" thickBot="1">
       <c r="A52" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B52" s="43">
         <v>1</v>
@@ -4027,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="71" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D67" s="72" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75">

--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Difunto</t>
   </si>
   <si>
-    <t>Trsalado</t>
-  </si>
-  <si>
     <t xml:space="preserve">situación    </t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>Exclusión Random</t>
   </si>
   <si>
-    <t>Cancer en fecha índice</t>
-  </si>
-  <si>
     <t>CVD en  fecha índice</t>
   </si>
   <si>
@@ -452,9 +446,6 @@
     <t>Contaminados en  fecha índice</t>
   </si>
   <si>
-    <t>Fuera de rango edad  fecha índice</t>
-  </si>
-  <si>
     <t>Generación post 84 o pre 1906</t>
   </si>
   <si>
@@ -675,6 +666,30 @@
   </si>
   <si>
     <t>Año entrada / diagnótico</t>
+  </si>
+  <si>
+    <t>Fuera de rango edad</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>CVD</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Met</t>
+  </si>
+  <si>
+    <t>DM sin control</t>
+  </si>
+  <si>
+    <t>Grupos con exclusiones</t>
+  </si>
+  <si>
+    <t>Sujetos de grupos n&gt;5</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1291,11 +1306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1326,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1335,25 +1350,25 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="42" t="s">
-        <v>133</v>
-      </c>
       <c r="L1" s="42" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
@@ -1364,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1378,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -1395,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -1412,7 +1427,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -1443,7 +1458,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="6">
         <v>6</v>
@@ -1454,10 +1469,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H8" s="37">
         <v>1</v>
@@ -1466,10 +1481,10 @@
     <row r="9" spans="1:13" s="36" customFormat="1" ht="16.5">
       <c r="A9" s="32"/>
       <c r="B9" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -1487,28 +1502,28 @@
     <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="36" customFormat="1" ht="16.5">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
@@ -1524,10 +1539,10 @@
     <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="16" customFormat="1" ht="16.5">
@@ -1538,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="14"/>
@@ -1561,7 +1576,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
@@ -1584,7 +1599,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="14"/>
@@ -1607,7 +1622,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="14"/>
@@ -1630,7 +1645,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="14"/>
@@ -1653,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -1661,7 +1676,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="15"/>
@@ -1675,10 +1690,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="14"/>
@@ -1696,10 +1711,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -1719,10 +1734,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -1745,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5">
@@ -1756,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5">
@@ -1767,7 +1782,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -1779,7 +1794,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5">
@@ -1790,7 +1805,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5">
@@ -1801,7 +1816,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5">
@@ -1809,10 +1824,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="24" customFormat="1" ht="16.5">
@@ -1823,10 +1838,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22">
@@ -1845,13 +1860,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22">
@@ -1873,10 +1888,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22">
@@ -1898,10 +1913,10 @@
         <v>30</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22">
@@ -1920,13 +1935,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22">
@@ -1948,10 +1963,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22">
@@ -1970,13 +1985,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="22">
@@ -1995,13 +2010,13 @@
         <v>30</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="22">
@@ -2020,13 +2035,13 @@
         <v>31</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>157</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22">
@@ -2045,13 +2060,13 @@
         <v>32</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="22">
@@ -2070,13 +2085,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22">
@@ -2098,10 +2113,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="22">
@@ -2123,10 +2138,10 @@
         <v>33</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22">
@@ -2148,10 +2163,10 @@
         <v>34</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22">
@@ -2173,10 +2188,10 @@
         <v>35</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22">
@@ -2198,10 +2213,10 @@
         <v>36</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22">
@@ -2223,10 +2238,10 @@
         <v>37</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22">
@@ -2248,10 +2263,10 @@
         <v>38</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22">
@@ -2273,10 +2288,10 @@
         <v>39</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22">
@@ -2298,10 +2313,10 @@
         <v>40</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22">
@@ -2323,10 +2338,10 @@
         <v>41</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22">
@@ -2348,10 +2363,10 @@
         <v>42</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22">
@@ -2373,7 +2388,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
@@ -2398,10 +2413,10 @@
         <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F54" s="6">
         <v>38</v>
@@ -2412,10 +2427,10 @@
         <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F55" s="6">
         <v>39</v>
@@ -2426,10 +2441,10 @@
         <v>49</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="6">
         <v>40</v>
@@ -2440,10 +2455,10 @@
         <v>50</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="6">
         <v>41</v>
@@ -2454,10 +2469,10 @@
         <v>51</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F58" s="6">
         <v>42</v>
@@ -2468,13 +2483,13 @@
         <v>52</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16.5">
@@ -2482,10 +2497,10 @@
         <v>53</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16.5">
@@ -2493,10 +2508,10 @@
         <v>54</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F61" s="6">
         <v>43</v>
@@ -2507,10 +2522,10 @@
         <v>55</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F62" s="6">
         <v>44</v>
@@ -2521,10 +2536,10 @@
         <v>56</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D63" s="55"/>
       <c r="E63" s="56"/>
@@ -2535,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K63" s="59" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L63" s="59"/>
       <c r="M63" s="59"/>
@@ -2548,10 +2563,10 @@
         <v>57</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="56"/>
@@ -2575,10 +2590,10 @@
         <v>58</v>
       </c>
       <c r="B65" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>134</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>135</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="56"/>
@@ -2586,7 +2601,7 @@
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
       <c r="I65" s="58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J65" s="61"/>
       <c r="K65" s="59">
@@ -2600,10 +2615,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="27"/>
@@ -2611,12 +2626,12 @@
       <c r="G66" s="27"/>
       <c r="H66" s="30"/>
       <c r="I66" s="28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J66" s="31"/>
       <c r="K66" s="31"/>
       <c r="L66" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M66" s="31"/>
     </row>
@@ -2625,23 +2640,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="26"/>
+        <v>223</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>142</v>
+      </c>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="30"/>
       <c r="I67" s="28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J67" s="31"/>
       <c r="K67" s="31"/>
       <c r="L67" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M67" s="31"/>
     </row>
@@ -2650,23 +2667,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D68" s="26"/>
+        <v>222</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>145</v>
+      </c>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="30"/>
       <c r="I68" s="28" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J68" s="31"/>
       <c r="K68" s="31"/>
       <c r="L68" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M68" s="31"/>
     </row>
@@ -2675,12 +2694,14 @@
         <v>69</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>218</v>
+      </c>
       <c r="E69" s="27"/>
       <c r="F69" s="27">
         <v>45</v>
@@ -2688,12 +2709,12 @@
       <c r="G69" s="27"/>
       <c r="H69" s="30"/>
       <c r="I69" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="31"/>
       <c r="L69" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M69" s="31"/>
     </row>
@@ -2702,12 +2723,14 @@
         <v>70</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="26"/>
+        <v>219</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>139</v>
+      </c>
       <c r="E70" s="27"/>
       <c r="F70" s="27">
         <v>46</v>
@@ -2715,12 +2738,12 @@
       <c r="G70" s="27"/>
       <c r="H70" s="30"/>
       <c r="I70" s="28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="31"/>
       <c r="L70" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M70" s="31"/>
     </row>
@@ -2729,12 +2752,14 @@
         <v>71</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="26"/>
+        <v>220</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>140</v>
+      </c>
       <c r="E71" s="27"/>
       <c r="F71" s="27">
         <v>47</v>
@@ -2742,12 +2767,12 @@
       <c r="G71" s="27"/>
       <c r="H71" s="30"/>
       <c r="I71" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J71" s="31"/>
       <c r="K71" s="31"/>
       <c r="L71" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M71" s="31"/>
     </row>
@@ -2756,12 +2781,14 @@
         <v>72</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="26"/>
+        <v>221</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="E72" s="27"/>
       <c r="F72" s="27">
         <v>48</v>
@@ -2769,12 +2796,12 @@
       <c r="G72" s="27"/>
       <c r="H72" s="30"/>
       <c r="I72" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J72" s="31"/>
       <c r="K72" s="31"/>
       <c r="L72" s="31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M72" s="31"/>
     </row>
@@ -2783,24 +2810,26 @@
         <v>65</v>
       </c>
       <c r="B73" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="48"/>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
       <c r="H73" s="50"/>
       <c r="I73" s="51" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J73" s="52"/>
       <c r="K73" s="52"/>
       <c r="L73" s="52"/>
       <c r="M73" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.5">
@@ -2808,10 +2837,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="62"/>
@@ -2824,7 +2853,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="62"/>
@@ -2837,10 +2866,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F76" s="6">
         <v>49</v>
@@ -2856,11 +2885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2905,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>45</v>
@@ -2919,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>46</v>
@@ -2989,10 +3018,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
@@ -3333,7 +3362,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B33" s="63">
         <v>0</v>
@@ -3347,7 +3376,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B34" s="63">
         <v>1</v>
@@ -3417,7 +3446,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B39" s="63">
         <v>0</v>
@@ -3431,7 +3460,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B40" s="63">
         <v>1</v>
@@ -3473,7 +3502,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B43" s="63">
         <v>0</v>
@@ -3487,7 +3516,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B44" s="63">
         <v>1</v>
@@ -3501,7 +3530,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B45" s="63">
         <v>0</v>
@@ -3515,7 +3544,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B46" s="63">
         <v>1</v>
@@ -3529,7 +3558,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B47" s="63">
         <v>0</v>
@@ -3543,7 +3572,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B48" s="63">
         <v>1</v>
@@ -3557,7 +3586,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B49" s="63">
         <v>0</v>
@@ -3571,7 +3600,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B50" s="63">
         <v>1</v>
@@ -3585,7 +3614,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B51" s="63">
         <v>0</v>
@@ -3599,7 +3628,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B52" s="63">
         <v>1</v>
@@ -3641,170 +3670,170 @@
     </row>
     <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="63">
         <v>0</v>
       </c>
       <c r="C55" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" s="63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="63">
         <v>1</v>
       </c>
       <c r="C56" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D56" s="63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="63">
         <v>2</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D57" s="63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" s="63">
         <v>1</v>
       </c>
       <c r="C58" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B59" s="63">
         <v>2</v>
       </c>
       <c r="C59" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" s="63">
         <v>3</v>
       </c>
       <c r="C60" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61" s="63">
         <v>4</v>
       </c>
       <c r="C61" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B62" s="63">
         <v>5</v>
       </c>
       <c r="C62" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="63">
         <v>1</v>
       </c>
       <c r="C63" s="63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D63" s="63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="63">
         <v>2</v>
       </c>
       <c r="C64" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="63">
         <v>3</v>
       </c>
       <c r="C65" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="63">
         <v>4</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3815,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D67" s="63" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3893,7 +3922,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B73" s="63">
         <v>0</v>
@@ -3907,7 +3936,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B74" s="63">
         <v>1</v>
@@ -3921,7 +3950,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B75" s="63">
         <v>0</v>
@@ -3935,7 +3964,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="64" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B76" s="63">
         <v>1</v>
@@ -3949,7 +3978,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B77" s="63">
         <v>0</v>
@@ -3963,7 +3992,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="64" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B78" s="63">
         <v>1</v>
@@ -3977,7 +4006,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" s="63">
         <v>0</v>
@@ -3991,7 +4020,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="64" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="63">
         <v>1</v>

--- a/conductor_DataHarmonization.xlsx
+++ b/conductor_DataHarmonization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="taulavariables" sheetId="8" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="226">
   <si>
     <t>id</t>
   </si>
@@ -398,9 +398,6 @@
     <t>Edad fecha índice [cataegorizada]</t>
   </si>
   <si>
-    <t>Edad fecha índice [categorizada]</t>
-  </si>
-  <si>
     <t>IMC [categorizado]</t>
   </si>
   <si>
@@ -690,6 +687,12 @@
   </si>
   <si>
     <t>Sujetos de grupos n&gt;5</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Edad [categorizada]</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1306,11 +1309,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1353,22 +1356,22 @@
         <v>103</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="K1" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="42" t="s">
-        <v>132</v>
-      </c>
       <c r="L1" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5">
@@ -1469,10 +1472,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="37">
         <v>1</v>
@@ -1481,10 +1484,10 @@
     <row r="9" spans="1:13" s="36" customFormat="1" ht="16.5">
       <c r="A9" s="32"/>
       <c r="B9" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -1502,28 +1505,28 @@
     <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="36" customFormat="1" ht="16.5">
       <c r="A12" s="32"/>
       <c r="B12" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34"/>
@@ -1539,10 +1542,10 @@
     <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="16" customFormat="1" ht="16.5">
@@ -1714,7 +1717,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -1838,7 +1841,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>76</v>
@@ -1860,10 +1863,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>77</v>
@@ -1888,7 +1891,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>78</v>
@@ -1913,7 +1916,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>79</v>
@@ -1935,10 +1938,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>80</v>
@@ -1963,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>81</v>
@@ -1985,10 +1988,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>82</v>
@@ -2010,10 +2013,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>83</v>
@@ -2035,13 +2038,13 @@
         <v>31</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22">
@@ -2060,10 +2063,10 @@
         <v>32</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D39" s="21" t="s">
         <v>84</v>
@@ -2085,13 +2088,13 @@
         <v>33</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22">
@@ -2113,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="21" t="s">
         <v>67</v>
@@ -2138,7 +2141,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>68</v>
@@ -2163,7 +2166,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>69</v>
@@ -2188,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>70</v>
@@ -2213,7 +2216,7 @@
         <v>36</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="21" t="s">
         <v>71</v>
@@ -2238,7 +2241,7 @@
         <v>37</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>72</v>
@@ -2263,7 +2266,7 @@
         <v>38</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>73</v>
@@ -2288,7 +2291,7 @@
         <v>39</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>74</v>
@@ -2313,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>85</v>
@@ -2338,7 +2341,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>75</v>
@@ -2363,7 +2366,7 @@
         <v>42</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>86</v>
@@ -2388,7 +2391,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="F52" s="6">
         <v>3</v>
@@ -2472,10 +2475,7 @@
         <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" s="6">
-        <v>42</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16.5">
@@ -2511,10 +2511,7 @@
         <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F61" s="6">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16.5">
@@ -2525,7 +2522,7 @@
         <v>110</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="F62" s="6">
         <v>44</v>
@@ -2536,10 +2533,10 @@
         <v>56</v>
       </c>
       <c r="B63" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D63" s="55"/>
       <c r="E63" s="56"/>
@@ -2550,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="J63" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K63" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L63" s="59"/>
       <c r="M63" s="59"/>
@@ -2563,10 +2560,10 @@
         <v>57</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="55"/>
       <c r="E64" s="56"/>
@@ -2590,10 +2587,10 @@
         <v>58</v>
       </c>
       <c r="B65" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>133</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>134</v>
       </c>
       <c r="D65" s="55"/>
       <c r="E65" s="56"/>
@@ -2601,7 +2598,7 @@
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
       <c r="I65" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J65" s="61"/>
       <c r="K65" s="59">
@@ -2615,10 +2612,10 @@
         <v>63</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66" s="26"/>
       <c r="E66" s="27"/>
@@ -2626,12 +2623,12 @@
       <c r="G66" s="27"/>
       <c r="H66" s="30"/>
       <c r="I66" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J66" s="31"/>
       <c r="K66" s="31"/>
       <c r="L66" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M66" s="31"/>
     </row>
@@ -2640,25 +2637,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
       <c r="H67" s="30"/>
       <c r="I67" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J67" s="31"/>
       <c r="K67" s="31"/>
       <c r="L67" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M67" s="31"/>
     </row>
@@ -2667,25 +2664,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" s="26" t="s">
         <v>144</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>145</v>
       </c>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
       <c r="G68" s="27"/>
       <c r="H68" s="30"/>
       <c r="I68" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J68" s="31"/>
       <c r="K68" s="31"/>
       <c r="L68" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M68" s="31"/>
     </row>
@@ -2694,13 +2691,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="27">
@@ -2709,12 +2706,12 @@
       <c r="G69" s="27"/>
       <c r="H69" s="30"/>
       <c r="I69" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="31"/>
       <c r="L69" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M69" s="31"/>
     </row>
@@ -2723,13 +2720,13 @@
         <v>70</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E70" s="27"/>
       <c r="F70" s="27">
@@ -2738,12 +2735,12 @@
       <c r="G70" s="27"/>
       <c r="H70" s="30"/>
       <c r="I70" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J70" s="31"/>
       <c r="K70" s="31"/>
       <c r="L70" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M70" s="31"/>
     </row>
@@ -2752,13 +2749,13 @@
         <v>71</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E71" s="27"/>
       <c r="F71" s="27">
@@ -2767,12 +2764,12 @@
       <c r="G71" s="27"/>
       <c r="H71" s="30"/>
       <c r="I71" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J71" s="31"/>
       <c r="K71" s="31"/>
       <c r="L71" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M71" s="31"/>
     </row>
@@ -2781,13 +2778,13 @@
         <v>72</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E72" s="27"/>
       <c r="F72" s="27">
@@ -2796,12 +2793,12 @@
       <c r="G72" s="27"/>
       <c r="H72" s="30"/>
       <c r="I72" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J72" s="31"/>
       <c r="K72" s="31"/>
       <c r="L72" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M72" s="31"/>
     </row>
@@ -2810,26 +2807,26 @@
         <v>65</v>
       </c>
       <c r="B73" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="48" t="s">
         <v>137</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="48" t="s">
-        <v>138</v>
       </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="49"/>
       <c r="H73" s="50"/>
       <c r="I73" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J73" s="52"/>
       <c r="K73" s="52"/>
       <c r="L73" s="52"/>
       <c r="M73" s="52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.5">
@@ -2837,10 +2834,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="62"/>
@@ -2853,7 +2850,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="62"/>
@@ -2866,10 +2863,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F76" s="6">
         <v>49</v>
@@ -2885,11 +2882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2934,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>45</v>
@@ -2948,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="63" t="s">
         <v>46</v>
@@ -3018,10 +3015,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75">
@@ -3362,7 +3359,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="63">
         <v>0</v>
@@ -3376,7 +3373,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="63">
         <v>1</v>
@@ -3446,7 +3443,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="63">
         <v>0</v>
@@ -3460,7 +3457,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B40" s="63">
         <v>1</v>
@@ -3502,7 +3499,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="63">
         <v>0</v>
@@ -3516,7 +3513,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" s="63">
         <v>1</v>
@@ -3530,7 +3527,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" s="63">
         <v>0</v>
@@ -3544,7 +3541,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="63">
         <v>1</v>
@@ -3558,7 +3555,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="63">
         <v>0</v>
@@ -3572,7 +3569,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B48" s="63">
         <v>1</v>
@@ -3586,7 +3583,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="63">
         <v>0</v>
@@ -3600,7 +3597,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="63">
         <v>1</v>
@@ -3614,7 +3611,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" s="63">
         <v>0</v>
@@ -3628,7 +3625,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" s="63">
         <v>1</v>
@@ -3844,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3922,7 +3919,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B73" s="63">
         <v>0</v>
@@ -3936,7 +3933,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B74" s="63">
         <v>1</v>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B75" s="63">
         <v>0</v>
@@ -3964,7 +3961,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B76" s="63">
         <v>1</v>
@@ -3978,7 +3975,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B77" s="63">
         <v>0</v>
@@ -3992,7 +3989,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B78" s="63">
         <v>1</v>
@@ -4006,7 +4003,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" s="63">
         <v>0</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B80" s="63">
         <v>1</v>
